--- a/atomica/library/tb_simple_framework.xlsx
+++ b/atomica/library/tb_simple_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E8A760-314C-4658-9255-4B85ECB6C9BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244505CB-588F-344C-9821-BA43C108413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,17 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -548,7 +554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -772,9 +778,6 @@
     <t>Test yield</t>
   </si>
   <si>
-    <t>probability</t>
-  </si>
-  <si>
     <t>pos_test</t>
   </si>
   <si>
@@ -821,6 +824,12 @@
   </si>
   <si>
     <t>Constituents</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>fraction</t>
   </si>
 </sst>
 </file>
@@ -915,23 +924,9 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -970,9 +965,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1010,9 +1005,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,26 +1040,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,26 +1075,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1296,13 +1257,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1318,22 +1279,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1394,13 +1355,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1424,35 +1385,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
@@ -1470,16 +1431,16 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1496,7 +1457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1511,7 +1472,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1487,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1541,7 +1502,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1556,7 +1517,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1590,9 +1551,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1578,7 @@
         <v>txs</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1630,7 +1591,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>dx</v>
@@ -1643,7 +1604,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>tx</v>
@@ -1658,7 +1619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>lost</v>
@@ -1671,7 +1632,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>txs</v>
@@ -1688,7 +1649,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F6">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="7">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1705,16 +1666,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,7 +1692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -1748,7 +1709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1765,7 +1726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -1782,7 +1743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -1799,7 +1760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -1816,26 +1777,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
@@ -1849,23 +1810,23 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1894,7 +1855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
@@ -1917,7 +1878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>72</v>
       </c>
@@ -1925,15 +1886,13 @@
         <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
         <v>32</v>
@@ -1942,12 +1901,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
@@ -1958,44 +1917,42 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>71</v>
@@ -2013,65 +1970,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="3">
         <v>0.2</v>
@@ -2088,15 +2041,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
         <v>0.16</v>
@@ -2104,18 +2057,16 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2125,7 +2076,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2135,7 +2086,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2145,7 +2096,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2155,7 +2106,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2165,48 +2116,41 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:B5">
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>AND(A5&lt;&gt;"",NOT(B5&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17 C2:C18" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17 C11:C18" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{2F8BD125-21AB-F446-86E9-C3134FCC028F}">
+      <formula1>",number,probability,duration,proportion, rate, fraction"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2223,21 +2167,21 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -2253,7 +2197,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -2261,7 +2205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -2272,7 +2216,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -2283,17 +2227,17 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
